--- a/Сем1/ТВ/lab3.xlsx
+++ b/Сем1/ТВ/lab3.xlsx
@@ -297,9 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -311,6 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,11 +664,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="14" t="str">
         <f>IF(B9&gt;B7,"Нульвая","Альтернативная")</f>
         <v>Альтернативная</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -684,158 +684,158 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>7.3</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>7.6</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>8.4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <f>AVERAGE(B1:F1)</f>
         <v>7.9800000000000013</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5.4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>7.4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>7.1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f t="shared" ref="H2:H4" si="0">AVERAGE(B2:F2)</f>
         <v>6.6333333333333329</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>8.1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6.4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>7.9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>9.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>7.1</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f t="shared" si="0"/>
         <v>8.625</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>AVERAGE(B1:F1,B2:D2,B3:C4,D4:E4)</f>
         <v>7.7714285714285722</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>B6-1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>1/(B6-1) * ((POWER((H1-H6), 2)*J1)+POWER(H2-H6,2)*J2 + POWER(H3-H6,2)*J3 +POWER(H4-H6,2)*J4)</f>
         <v>2.5204682539682559</v>
       </c>
@@ -847,65 +847,65 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>J1 - 1</f>
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>_xlfn.VAR.S(B1:F1)</f>
         <v>0.24700000000000044</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" ref="B12:B14" si="1">J2 - 1</f>
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" ref="E12:E14" si="2">_xlfn.VAR.S(B2:F2)</f>
         <v>1.1633333333333553</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>1.4450000000000074</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>1.835833333333331</v>
       </c>
@@ -946,8 +946,8 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>IF(B20&gt;B19, "Нулевое", "Альтернативное")</f>
-        <v>Нулевое</v>
+        <f>IF(B20&gt;B19, "Нулевая", "Альтернативная")</f>
+        <v>Нулевая</v>
       </c>
     </row>
   </sheetData>
@@ -960,128 +960,128 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>47</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>41</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>40</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>100</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>58</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>38</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>73</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>89</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>58</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>86</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>60</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>34</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>117</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>78</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>56</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>85</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>65</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>72</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>B1-B2</f>
         <v>-39</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:K3" si="0">C1-C2</f>
         <v>-19</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>-17</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B4">
@@ -1147,11 +1147,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="14" t="str">
         <f>IF(B10&gt;B9, "Нулевая", "Альтернативная")</f>
         <v>Альтернативная</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
